--- a/00_annotated_datasets/Conflict_Evaluation.xlsx
+++ b/00_annotated_datasets/Conflict_Evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirr\eclipse-workspace_new\org.henshin.backlogconflict\00_annotated_datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirr\eclipse-workspace_new\org.backlogconflict\00_annotated_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0456518-1CAE-49FC-BDFF-BE45956F981E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA687EFC-5ADE-4090-B5FD-E40032A39F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6104" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6105" uniqueCount="1170">
   <si>
     <t>#G03#</t>
   </si>
@@ -4855,14 +4855,7 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -4874,7 +4867,14 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7572,143 +7572,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE0A2A8-8BAA-4777-A196-828C94D1EA27}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="19">
-        <item x="0"/>
-        <item x="1"/>
-        <item n="G08" x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item n="G12" x="5"/>
-        <item n="G14" x="6"/>
-        <item n="G16" x="7"/>
-        <item n="G18" x="8"/>
-        <item n="G19" x="9"/>
-        <item x="10"/>
-        <item n="G22" x="11"/>
-        <item n="G23" x="12"/>
-        <item n="G24" x="13"/>
-        <item n="G25" x="14"/>
-        <item n="G26" x="15"/>
-        <item n="G27" x="16"/>
-        <item n="G28" x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="10" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Ground Truth" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Conflict Evaluation (Tool)" fld="11" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="2">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AB44326-5AEE-430C-8C0B-B8BF4995A41B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E4:G23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
@@ -7834,10 +7697,147 @@
     <dataField name="Count of Conflict Evaluation (Tool)" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE0A2A8-8BAA-4777-A196-828C94D1EA27}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item n="G08" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item n="G12" x="5"/>
+        <item n="G14" x="6"/>
+        <item n="G16" x="7"/>
+        <item n="G18" x="8"/>
+        <item n="G19" x="9"/>
+        <item x="10"/>
+        <item n="G22" x="11"/>
+        <item n="G23" x="12"/>
+        <item n="G24" x="13"/>
+        <item n="G25" x="14"/>
+        <item n="G26" x="15"/>
+        <item n="G27" x="16"/>
+        <item n="G28" x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="10" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Ground Truth" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Conflict Evaluation (Tool)" fld="11" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
     <format dxfId="3">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -8127,7 +8127,7 @@
   <dimension ref="A1:P692"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8138,7 +8138,7 @@
     <col min="5" max="5" width="32.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="60.28515625" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G10#user_story_31_AND_user_story_32</v>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G10#user_story_32_AND_user_story_33</v>
@@ -8711,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G10#user_story_31_AND_user_story_33</v>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_10_AND_user_story_22</v>
@@ -9328,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_10_AND_user_story_11</v>
@@ -9375,7 +9375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_10_AND_user_story_32</v>
@@ -9422,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_10_AND_user_story_43</v>
@@ -9469,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_11_AND_user_story_22</v>
@@ -9516,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_10_AND_user_story_24</v>
@@ -9563,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_11_AND_user_story_24</v>
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_09_AND_user_story_22</v>
@@ -9847,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_09_AND_user_story_10</v>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_10_AND_user_story_30</v>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#G14#user_story_09_AND_user_story_24</v>
@@ -14071,7 +14071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#G24#user_story_03_AND_user_story_07</v>
@@ -14120,7 +14120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#G24#user_story_01_AND_user_story_07</v>
@@ -14406,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G24#user_story_50_AND_user_story_07</v>
@@ -15023,7 +15023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G25#user_story_53_AND_user_story_81</v>
@@ -15070,7 +15070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G25#user_story_53_AND_user_story_80</v>
@@ -15117,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_15_AND_user_story_91</v>
@@ -15164,7 +15164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_64_AND_user_story_13</v>
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_59_AND_user_story_15</v>
@@ -15262,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_09_AND_user_story_51</v>
@@ -15309,7 +15309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_04_AND_user_story_06</v>
@@ -15358,7 +15358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_04_AND_user_story_39</v>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_10_AND_user_story_51</v>
@@ -15452,7 +15452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_04_AND_user_story_35</v>
@@ -15501,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G26#user_story_60_AND_user_story_15</v>
@@ -15550,7 +15550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G27#user_story_04_AND_user_story_05</v>
@@ -15597,7 +15597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G27#user_story_76_AND_user_story_88</v>
@@ -15644,7 +15644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G27#user_story_97_AND_user_story_17</v>
@@ -15693,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G27#user_story_38_AND_user_story_101</v>
@@ -15742,7 +15742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#G27#user_story_97_AND_user_story_19</v>
@@ -15785,10 +15785,13 @@
         <v>22</v>
       </c>
       <c r="N160" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160" s="2" t="b">
         <v>1</v>
+      </c>
+      <c r="P160" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -45849,7 +45852,7 @@
   </sheetData>
   <autoFilter ref="B1:O398" xr:uid="{AE7C5651-5E2B-4A58-BEB9-363FF694D807}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45861,7 +45864,7 @@
   <dimension ref="C1:W16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
